--- a/Gesture Test Cases.xlsx
+++ b/Gesture Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yurt\Desktop\DamienGameUpload\GUIProjectRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{951F055B-15F2-4C26-A75C-8FC7205B223D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572FAD10-998C-4A01-A02E-E1FE1A7F814D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product No 1 or Sprint No 1" sheetId="4" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>TC.008</t>
   </si>
   <si>
-    <t>Title: Hamlet</t>
-  </si>
-  <si>
     <t>Game</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>This is a test plan to test the game for the module Gesture Based UI</t>
+  </si>
+  <si>
+    <t>Title: TetrisTake2</t>
   </si>
 </sst>
 </file>
@@ -462,91 +462,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -968,7 +884,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="11"/>
@@ -1006,7 +922,7 @@
     </row>
     <row r="2" spans="1:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1069,22 +985,22 @@
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1103,22 +1019,22 @@
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>14</v>
@@ -1137,22 +1053,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>14</v>
@@ -1171,22 +1087,22 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>14</v>
@@ -1205,22 +1121,22 @@
         <v>17</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>14</v>
@@ -1239,22 +1155,22 @@
         <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -1273,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="G10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>14</v>
@@ -1307,22 +1223,22 @@
         <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="H11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>14</v>
@@ -1341,22 +1257,22 @@
         <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>14</v>
@@ -1388,35 +1304,35 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J5 J36:J1048576 J7:J8 J11:J12">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1437,18 +1353,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1669,18 +1585,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787BAD58-35B4-4E16-B7E4-7B790AB56F1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA35423-B04C-452A-B7E9-1D1C97DE04ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA35423-B04C-452A-B7E9-1D1C97DE04ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787BAD58-35B4-4E16-B7E4-7B790AB56F1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
